--- a/data/25吨牵引车.xlsx
+++ b/data/25吨牵引车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08FC47E-D1D7-1B42-8F58-745BF9E9C141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214618E4-7472-324F-9D0A-C31C5579E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>单位</t>
   </si>
@@ -309,7 +309,7 @@
     <t>广州-深圳</t>
   </si>
   <si>
-    <t>港口</t>
+    <t>电池容量</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,9 +441,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -766,132 +763,132 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
         <v>165900</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>164241</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>162598.59</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>160972.6041</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>159362.87805900001</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>157769.24927840999</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>156191.55678562599</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>154629.64121777</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>153083.344805592</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>151552.51135753599</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
         <v>120000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>120000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>120000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>120000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>120000</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>120000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>120000</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>120000</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>120000</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>120000</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -900,40 +897,40 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>2000</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>2000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>2000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>2000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>2000</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>2000</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>2000</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -942,228 +939,228 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>9125</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>9125</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>9125</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>9125</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>9125</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>9125</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>9125</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>9125</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>9125</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>9125</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
         <f>C5*5</f>
         <v>45625</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:L7" si="0">D5*5</f>
         <v>45625</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
         <f>C2+C3+C7</f>
         <v>331525</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>329866</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>328223.58999999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>326597.6041</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>324987.87805900001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>323394.24927840999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>321816.55678562599</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="1"/>
         <v>320254.64121777</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="1"/>
         <v>318708.34480559197</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="1"/>
         <v>317177.51135753596</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
         <v>63572.167670976502</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>63455.983513753097</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>63340.961198101897</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>63227.0891056072</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>63114.355734037497</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>63002.749696183499</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>62892.259718708003</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>62782.874641007198</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>62674.5834140835</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1172,50 +1169,50 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <f>C9+C8</f>
         <v>395097.16767097649</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" ref="D10:L10" si="2">D9+D8</f>
         <v>393321.9835137531</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="2"/>
         <v>391564.55119810184</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>389824.69320560718</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>388102.23379303748</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>386396.99897459347</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>384708.81650433398</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>383037.51585877722</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>381382.92821967549</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="2"/>
         <v>379744.88645696494</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -1224,40 +1221,40 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>35</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>34.299999999999997</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>33.613999999999997</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>32.941719999999997</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>32.2828856</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>31.637227888000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>31.004483330239999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>30.384393663635201</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>29.776705790362499</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>29.181171674555198</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1266,46 +1263,46 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>8.1449999999999996</v>
       </c>
     </row>
@@ -1313,288 +1310,288 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>6000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>6000</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>6000</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>6000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>6000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>6000</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>6000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>6000</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>6000</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>6000</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>2.63</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>2.63</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>2.63</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>2.63</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>2.63</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>2.63</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>2.63</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>2.63</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>2.63</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>2.63</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>2.63</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>2.63</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>2.63</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:L16" si="3">C16</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>5000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1604,59 +1601,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
@@ -1664,389 +1661,389 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>380</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>380</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>380</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>380</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>380</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>380</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>380</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>380</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>380</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>380</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>900</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>180</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>180</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>180</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>180</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>180</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>180</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>180</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>180</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>180</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>180</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>2</v>
-      </c>
-      <c r="L6" s="8">
-        <v>2</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>9125</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>9125</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>9125</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>9125</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>9125</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>9125</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>9125</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>9125</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>9125</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>9125</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>747625</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>692605.53054685448</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>657516.4945626423</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>619513.04822405416</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>587998.00583081041</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>571637.97999359027</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>558185.5724173031</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>543624.29842392169</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>531638.3381560191</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>523424.12813449057</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
         <v>62658.1558433803</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>58804.996898658203</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>56347.618915771898</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>53686.137068614102</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>51479.055308324998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>50333.319434876503</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>49391.211757434001</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>48371.447232406601</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>47532.038737988398</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>46956.775887712603</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2055,101 +2052,101 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>810283.15584338026</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>751410.52744551271</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>713864.11347841425</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>673199.18529266829</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>639477.06113913539</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>621971.29942846682</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
         <v>607576.78417473705</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="1"/>
         <v>591995.74565632828</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>579170.37689400755</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="1"/>
         <v>570380.90402220318</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>180</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>176.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>172.87200000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>169.41455999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>166.0262688</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>162.70574342399999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>159.45162855551999</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>156.26259598441001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>153.13734406472099</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>150.07459718342699</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>L12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
@@ -2158,399 +2155,441 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.9</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.9</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>380</v>
+      </c>
+      <c r="D14" s="3">
+        <v>380</v>
+      </c>
+      <c r="E14" s="3">
+        <v>380</v>
+      </c>
+      <c r="F14" s="3">
+        <v>380</v>
+      </c>
+      <c r="G14" s="3">
+        <v>380</v>
+      </c>
+      <c r="H14" s="3">
+        <v>380</v>
+      </c>
+      <c r="I14" s="3">
+        <v>380</v>
+      </c>
+      <c r="J14" s="3">
+        <v>380</v>
+      </c>
+      <c r="K14" s="3">
+        <v>380</v>
+      </c>
+      <c r="L14" s="3">
+        <v>380</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I15" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L15" s="4">
         <v>5.69394277454363</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2360.24844720497</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2336.64596273292</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2313.5155279503101</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2290.8429813664602</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2268.6147279503102</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2246.8177108074501</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2225.4393845565201</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2204.4676902860101</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2183.8910319820902</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2163.6982543265799</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2360.24844720497</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2336.64596273292</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2313.5155279503101</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2290.8429813664602</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2268.6147279503102</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2246.8177108074501</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2225.4393845565201</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2204.4676902860101</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2183.8910319820902</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2163.6982543265799</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>2</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="12">
         <v>250</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="12">
         <v>250</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="12">
         <v>250</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="12">
         <v>250</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="12">
         <v>250</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="12">
         <v>250</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="12">
         <v>250</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="12">
         <v>250</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="12">
         <v>250</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L18" s="12">
         <v>250</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C19" s="13">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P19" s="12">
         <v>0.57030000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="4">
         <v>0.2</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:L19" si="3">C19</f>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" ref="D20:L20" si="4">C20</f>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:L21" si="5">C21</f>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2563,629 +2602,629 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>120</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>120</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>120</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>120</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>120</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>120</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>120</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>120</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>120</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>120</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>4500</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>100</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>98</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>96</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>94</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>92</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>90</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>88</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>86</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>84</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>82</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>900</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>180</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>180</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>180</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>180</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>180</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>180</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>180</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>180</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>180</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>180</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>40</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>40</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>40</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>40</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>40</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>40</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>40</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>4900</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>9125</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>9125</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>9125</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>9125</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>9125</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>9125</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>9125</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>9125</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>9125</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>9125</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>L12</f>
         <v>5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:P12" si="0">M12</f>
         <v>5</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>1231625</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>878093.66200318991</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>793589.99619886442</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>758674.39259213302</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>730503.59728945466</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>601451.57099404407</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>554446.94494077959</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="1"/>
         <v>530154.57046582014</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
         <v>519571.5692692328</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="1"/>
         <v>510594.65117025265</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
         <v>83170.717417065098</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>63818.928139816198</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>59097.356922879699</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>56997.722995768803</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>55294.103433653698</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>48469.809640264401</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>45941.8749301102</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>44573.215198433703</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>43909.8222643443</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>43348.909458775997</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
@@ -3194,474 +3233,516 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:L15" si="2">C14+C13</f>
         <v>1314795.7174170651</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="2"/>
         <v>941912.59014300606</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
         <v>852687.35312174412</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>815672.11558790179</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>785797.70072310837</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>649921.38063430844</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>600388.81987088977</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>574727.78566425387</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="2"/>
         <v>563481.39153357712</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="2"/>
         <v>553943.56062902859</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>10.78</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>10.564399999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>10.353111999999999</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>10.14604976</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>9.9431287648000009</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>9.7442661895039997</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>9.5493808657139194</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>9.3583932483996399</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>9.1712253834316506</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>50</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>49</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>48</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>47</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>46</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>45</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>44</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>43</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>42</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>41</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4">
+        <v>96</v>
+      </c>
+      <c r="F18" s="4">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4">
+        <v>92</v>
+      </c>
+      <c r="H18" s="4">
+        <v>90</v>
+      </c>
+      <c r="I18" s="4">
+        <v>88</v>
+      </c>
+      <c r="J18" s="4">
+        <v>86</v>
+      </c>
+      <c r="K18" s="4">
+        <v>84</v>
+      </c>
+      <c r="L18" s="4">
+        <v>82</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="4">
         <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D19" s="5">
-        <v>602.60869565217399</v>
-      </c>
-      <c r="E19" s="5">
-        <v>584.46708074534195</v>
-      </c>
-      <c r="F19" s="5">
-        <v>566.682211180124</v>
-      </c>
-      <c r="G19" s="5">
-        <v>549.24356571428495</v>
-      </c>
-      <c r="H19" s="5">
-        <v>532.14103677018602</v>
-      </c>
-      <c r="I19" s="5">
-        <v>515.36491010782595</v>
-      </c>
-      <c r="J19" s="5">
-        <v>498.90584569630801</v>
-      </c>
-      <c r="K19" s="5">
-        <v>482.75485970130399</v>
-      </c>
-      <c r="L19" s="5">
-        <v>466.90330751257801</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>602.60869565217399</v>
+      </c>
+      <c r="E20" s="4">
+        <v>584.46708074534195</v>
+      </c>
+      <c r="F20" s="4">
+        <v>566.682211180124</v>
+      </c>
+      <c r="G20" s="4">
+        <v>549.24356571428495</v>
+      </c>
+      <c r="H20" s="4">
+        <v>532.14103677018602</v>
+      </c>
+      <c r="I20" s="4">
+        <v>515.36491010782595</v>
+      </c>
+      <c r="J20" s="4">
+        <v>498.90584569630801</v>
+      </c>
+      <c r="K20" s="4">
+        <v>482.75485970130399</v>
+      </c>
+      <c r="L20" s="4">
+        <v>466.90330751257801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="12">
         <v>500</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="12">
         <v>500</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="12">
         <v>500</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="12">
         <v>500</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="12">
         <v>500</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="12">
         <v>500</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="12">
         <v>500</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="12">
         <v>500</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="12">
         <v>500</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="12">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" ref="D23:L23" si="3">C23</f>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" ref="D24:L24" si="4">C24</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:L25" si="5">C25</f>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -3683,38 +3764,38 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
     </row>
@@ -3725,42 +3806,42 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.06</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -3772,42 +3853,42 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3819,42 +3900,42 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -3866,43 +3947,43 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>C6*8</f>
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -3914,42 +3995,42 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3961,42 +4042,42 @@
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
@@ -4008,42 +4089,42 @@
       <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>60</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>60</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
@@ -4055,42 +4136,42 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -4102,42 +4183,42 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
@@ -4149,34 +4230,34 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>49</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>49</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>49</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>49</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>49</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>49</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>49</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>49</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>49</v>
       </c>
     </row>
@@ -4188,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4251,7 +4332,7 @@
         <v>0.26672779400000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D19" si="0">B3*C3*40</f>
+        <f t="shared" ref="D3:D18" si="0">B3*C3*40</f>
         <v>35373.3333491624</v>
       </c>
       <c r="E3">
@@ -4534,7 +4615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -4555,7 +4636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -4575,28 +4656,6 @@
       <c r="F18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/25吨牵引车.xlsx
+++ b/data/25吨牵引车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214618E4-7472-324F-9D0A-C31C5579E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274866F-DBD7-3646-BCAE-81BCCC4153A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>单位</t>
   </si>
@@ -310,6 +310,22 @@
   </si>
   <si>
     <t>电池容量</t>
+  </si>
+  <si>
+    <t>平均负载率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,9 +333,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +386,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -433,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,22 +470,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -473,7 +497,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3755,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4259,6 +4286,82 @@
       </c>
       <c r="L11" s="6">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="6">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6">
+        <v>80</v>
+      </c>
+      <c r="E12" s="6">
+        <v>80</v>
+      </c>
+      <c r="F12" s="6">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6">
+        <v>80</v>
+      </c>
+      <c r="H12" s="6">
+        <v>80</v>
+      </c>
+      <c r="I12" s="6">
+        <v>80</v>
+      </c>
+      <c r="J12" s="6">
+        <v>80</v>
+      </c>
+      <c r="K12" s="6">
+        <v>80</v>
+      </c>
+      <c r="L12" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6">
+        <v>80</v>
+      </c>
+      <c r="H13" s="6">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6">
+        <v>80</v>
+      </c>
+      <c r="J13" s="6">
+        <v>80</v>
+      </c>
+      <c r="K13" s="6">
+        <v>80</v>
+      </c>
+      <c r="L13" s="6">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/25吨牵引车.xlsx
+++ b/data/25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274866F-DBD7-3646-BCAE-81BCCC4153A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F43A3-3BB7-0A4D-9675-DCE130D9F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
   <si>
     <t>单位</t>
   </si>
@@ -153,27 +153,30 @@
     <t>元/kwh</t>
   </si>
   <si>
+    <t>电池容量</t>
+  </si>
+  <si>
+    <t>动力电池能量密度</t>
+  </si>
+  <si>
+    <t>kg/kwh</t>
+  </si>
+  <si>
+    <t>kWh/小时</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>燃料电池系统功率</t>
+  </si>
+  <si>
+    <t>燃料电池系统单价</t>
+  </si>
+  <si>
     <t>动力电池容量</t>
   </si>
   <si>
-    <t>动力电池能量密度</t>
-  </si>
-  <si>
-    <t>kg/kwh</t>
-  </si>
-  <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
-    <t>燃料电池系统功率</t>
-  </si>
-  <si>
-    <t>燃料电池系统单价</t>
-  </si>
-  <si>
     <t>氢瓶单位成本</t>
   </si>
   <si>
@@ -237,6 +240,18 @@
     <t>吨</t>
   </si>
   <si>
+    <t>平均负载率</t>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+  </si>
+  <si>
     <t>路线</t>
   </si>
   <si>
@@ -309,22 +324,13 @@
     <t>广州-深圳</t>
   </si>
   <si>
-    <t>电池容量</t>
-  </si>
-  <si>
-    <t>平均负载率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑每趟满载的可能性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行驶时间占比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑接不到单或高频装卸货时间</t>
+    <t>是否固定趟数</t>
+  </si>
+  <si>
+    <t>每日固定趟数</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -393,7 +399,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -408,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -451,13 +457,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,34 +489,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -780,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
@@ -840,40 +862,40 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>165900</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>164241</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>162598.59</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>160972.6041</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>159362.87805900001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>157769.24927840999</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>156191.55678562599</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>154629.64121777</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>153083.344805592</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>151552.51135753599</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
@@ -882,40 +904,40 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>120000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>120000</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>120000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>120000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>120000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>120000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>120000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>120000</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>120000</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>120000</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -924,40 +946,40 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>2000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>2000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>2000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>2000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>2000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>2000</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>2000</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>2000</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -966,40 +988,40 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>9125</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>9125</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>9125</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>9125</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>9125</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>9125</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>9125</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>9125</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>9125</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>9125</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -1050,144 +1072,144 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f>C5*5</f>
         <v>45625</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:L7" si="0">D5*5</f>
         <v>45625</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
         <f>C2+C3+C7</f>
         <v>331525</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>329866</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>328223.58999999997</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>326597.6041</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>324987.87805900001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>323394.24927840999</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
         <v>321816.55678562599</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>320254.64121777</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
         <v>318708.34480559197</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
         <v>317177.51135753596</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>63572.167670976502</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>63455.983513753097</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>63340.961198101897</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>63227.0891056072</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>63114.355734037497</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <v>63002.749696183499</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>62892.259718708003</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>62782.874641007198</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>62674.5834140835</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1196,50 +1218,50 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <f>C9+C8</f>
         <v>395097.16767097649</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <f t="shared" ref="D10:L10" si="2">D9+D8</f>
         <v>393321.9835137531</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>391564.55119810184</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>389824.69320560718</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>388102.23379303748</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>386396.99897459347</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>384708.81650433398</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>383037.51585877722</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
         <v>381382.92821967549</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
         <v>379744.88645696494</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -1337,7 +1359,7 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6">
@@ -1376,10 +1398,10 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="12">
@@ -1418,10 +1440,10 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12">
@@ -1468,7 +1490,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1519,7 +1541,7 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -1570,7 +1592,7 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
@@ -1631,7 +1653,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M13" sqref="M13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1691,40 +1713,40 @@
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>380</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>380</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>380</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>380</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>380</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>380</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>380</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>380</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>380</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>380</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
@@ -1733,40 +1755,40 @@
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>900</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -1775,40 +1797,40 @@
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>180</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>180</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>180</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>180</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>180</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>180</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>180</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>180</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>180</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
@@ -1817,40 +1839,40 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
@@ -1859,34 +1881,34 @@
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
         <v>2</v>
       </c>
       <c r="M6" s="4"/>
@@ -1901,40 +1923,40 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>9125</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>9125</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>9125</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>9125</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>9125</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>9125</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>9125</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>9125</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>9125</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>9125</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
@@ -1943,134 +1965,134 @@
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>747625</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>692605.53054685448</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>657516.4945626423</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>619513.04822405416</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>587998.00583081041</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>571637.97999359027</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>558185.5724173031</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>543624.29842392169</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>531638.3381560191</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
         <v>523424.12813449057</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>62658.1558433803</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>58804.996898658203</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>56347.618915771898</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>53686.137068614102</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>51479.055308324998</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>50333.319434876503</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>49391.211757434001</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>48371.447232406601</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>47532.038737988398</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>46956.775887712603</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2079,43 +2101,43 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>810283.15584338026</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>751410.52744551271</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>713864.11347841425</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>673199.18529266829</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>639477.06113913539</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>621971.29942846682</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>607576.78417473705</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>591995.74565632828</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>579170.37689400755</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
         <v>570380.90402220318</v>
       </c>
@@ -2215,14 +2237,23 @@
       <c r="L13" s="3">
         <v>0.9</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="M13" s="6">
+        <f>L13</f>
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="6">
+        <f>M13</f>
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="6">
+        <f>N13</f>
+        <v>0.9</v>
+      </c>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -2350,7 +2381,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6">
@@ -2389,10 +2420,10 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="12">
@@ -2431,10 +2462,10 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="13">
@@ -2481,7 +2512,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -2528,7 +2559,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -2575,7 +2606,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -2631,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2692,40 +2723,40 @@
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>120</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>120</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>120</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>120</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>120</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>120</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>120</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>120</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>120</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>120</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
@@ -2734,82 +2765,82 @@
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>4500</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>98</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>96</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>94</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>92</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>90</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>88</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>86</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>84</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>82</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
@@ -2818,40 +2849,40 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>900</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
@@ -2860,34 +2891,34 @@
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>180</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>180</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>180</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>180</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>180</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>180</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>180</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>180</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>180</v>
       </c>
       <c r="M6" s="4"/>
@@ -2902,40 +2933,40 @@
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
@@ -2944,40 +2975,40 @@
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
@@ -2986,82 +3017,82 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>40</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>40</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>40</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>40</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>40</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>40</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>40</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>40</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>40</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>40</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8">
         <v>4900</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -3070,34 +3101,34 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>9125</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>9125</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>9125</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>9125</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>9125</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>9125</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>9125</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>9125</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>9125</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>9125</v>
       </c>
       <c r="M11" s="4"/>
@@ -3110,36 +3141,36 @@
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>5</v>
       </c>
       <c r="M12" s="4">
@@ -3160,49 +3191,49 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>1231625</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>878093.66200318991</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>793589.99619886442</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>758674.39259213302</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>730503.59728945466</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>601451.57099404407</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>554446.94494077959</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>530154.57046582014</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
         <v>519571.5692692328</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
         <v>510594.65117025265</v>
       </c>
@@ -3212,40 +3243,40 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
         <v>83170.717417065098</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>63818.928139816198</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>59097.356922879699</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>56997.722995768803</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>55294.103433653698</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <v>48469.809640264401</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>45941.8749301102</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>44573.215198433703</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>43909.8222643443</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="10">
         <v>43348.909458775997</v>
       </c>
       <c r="M14" s="12"/>
@@ -3260,43 +3291,43 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <f t="shared" ref="C15:L15" si="2">C14+C13</f>
         <v>1314795.7174170651</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>941912.59014300606</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>852687.35312174412</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>815672.11558790179</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>785797.70072310837</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
         <v>649921.38063430844</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>600388.81987088977</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>574727.78566425387</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="10">
         <f t="shared" si="2"/>
         <v>563481.39153357712</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="10">
         <f t="shared" si="2"/>
         <v>553943.56062902859</v>
       </c>
@@ -3352,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4">
         <v>50</v>
@@ -3384,14 +3415,26 @@
       <c r="L17" s="4">
         <v>41</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="4">
+        <f>L17-1</f>
+        <v>40</v>
+      </c>
+      <c r="N17" s="4">
+        <f>M17-1</f>
+        <v>39</v>
+      </c>
+      <c r="O17" s="4">
+        <f>N17-1</f>
+        <v>38</v>
+      </c>
+      <c r="P17" s="4">
+        <f>O17-1</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -3511,7 +3554,7 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="6">
@@ -3546,11 +3589,11 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>48</v>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="12">
         <v>500</v>
@@ -3584,11 +3627,11 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>49</v>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="13">
         <v>4.9000000000000004</v>
@@ -3784,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3828,7 +3871,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -3875,10 +3918,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -3922,7 +3965,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3969,10 +4012,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4">
         <f>C6*8</f>
@@ -4017,10 +4060,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4064,10 +4107,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -4111,10 +4154,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
         <v>60</v>
@@ -4158,7 +4201,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4252,10 +4295,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6">
         <v>49</v>
@@ -4289,79 +4332,97 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>92</v>
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6">
-        <v>80</v>
+        <f>C12</f>
+        <v>60</v>
       </c>
       <c r="E12" s="6">
-        <v>80</v>
+        <f t="shared" ref="E12:L12" si="9">D12</f>
+        <v>60</v>
       </c>
       <c r="F12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="G12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="H12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="I12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="J12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="K12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="L12" s="6">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>94</v>
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="6">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6">
-        <v>80</v>
+        <f>C13</f>
+        <v>65</v>
       </c>
       <c r="E13" s="6">
-        <v>80</v>
+        <f t="shared" ref="E13:L13" si="10">D13</f>
+        <v>65</v>
       </c>
       <c r="F13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="G13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="H13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="I13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="J13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="K13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="L13" s="6">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4372,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4383,29 +4444,35 @@
     <col min="3" max="3" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>4164.7110000000002</v>
@@ -4421,12 +4488,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>3315.49</v>
@@ -4442,12 +4515,18 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>2122.558</v>
@@ -4463,12 +4542,18 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>2121.7370000000001</v>
@@ -4484,12 +4569,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>1363.981</v>
@@ -4505,12 +4596,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>1206.865</v>
@@ -4526,12 +4623,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>949.08900000000006</v>
@@ -4547,12 +4650,18 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>945.5</v>
@@ -4568,12 +4677,18 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>794</v>
@@ -4589,12 +4704,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>591.85400000000004</v>
@@ -4610,12 +4731,18 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>319.27100000000002</v>
@@ -4631,12 +4758,18 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>292.233</v>
@@ -4652,12 +4785,18 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>271.34699999999998</v>
@@ -4673,12 +4812,18 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>264.16399999999999</v>
@@ -4694,12 +4839,18 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>149</v>
@@ -4715,12 +4866,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>138.30000000000001</v>
@@ -4736,12 +4893,18 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>138.03100000000001</v>
@@ -4757,7 +4920,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/25吨牵引车.xlsx
+++ b/data/25吨牵引车.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AAA8E-55D9-8F45-87C9-E6D15087E455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B02134-88EF-0D46-A3F5-E6A3BF24BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="运营参数" sheetId="5" r:id="rId4"/>
     <sheet name="线路" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3121,7 +3121,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
